--- a/project_features_checklist.xlsx
+++ b/project_features_checklist.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E7A66B-B695-2D48-952A-051537A309A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD46100-E8AB-0D4F-AE1F-276308A55231}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33600" yWindow="-7300" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="94">
   <si>
     <t>Feature</t>
   </si>
@@ -286,9 +286,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>Templates aka. "Meme Backgrounds" are only stored in the storage once, which means that if 1 million memes based on that one cool cat images are created still only one .jpg or .png is stored and one million json data objects in our mongo db with which the memes can be recreated. This is incredibly storage efficient and enables us to do other cool things like seach wit CTRL+F in memes etc, since they are a canvas and not a pixel image</t>
-  </si>
-  <si>
     <t>Memes can be "copied" aka. "forked" (due to the previous feature), this means that a user can just "copy" a meme he likes and will have the same meme opened in the editor so he can create his own (new) version of it</t>
   </si>
   <si>
@@ -308,6 +305,12 @@
   </si>
   <si>
     <t>Total Points</t>
+  </si>
+  <si>
+    <t>Design system (incl. Storybook)</t>
+  </si>
+  <si>
+    <t>Templates aka. "Meme Backgrounds" are only stored in the storage once, which means that if 1 million memes based on that one cool cat images are created still only one .jpg or .png is stored and one million json data objects in our mongo db with which the memes can be recreated. This is incredibly storage efficient and enables us to do other cool things like seach wit CTRL+F in memes etc, since they are a svg/canvas and not a pixel image</t>
   </si>
 </sst>
 </file>
@@ -637,7 +640,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1021,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="N142" sqref="N142"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1792,11 +1795,13 @@
       <c r="B67" s="8">
         <v>1</v>
       </c>
-      <c r="C67" s="15"/>
+      <c r="C67" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="D67" s="15"/>
       <c r="N67" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1817,7 +1822,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D69" s="15"/>
       <c r="N69" s="27">
@@ -2671,11 +2676,11 @@
     </row>
     <row r="142" spans="1:14" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M142" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N142" s="29">
         <f>SUM(N1:N141)</f>
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
@@ -2706,7 +2711,7 @@
     </row>
     <row r="147" spans="1:5" ht="129" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A147" s="23" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B147" s="19"/>
       <c r="C147" s="19"/>
@@ -2714,7 +2719,7 @@
     </row>
     <row r="148" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A148" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B148" s="19"/>
       <c r="C148" s="19"/>
@@ -2722,7 +2727,7 @@
     </row>
     <row r="149" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A149" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B149" s="19"/>
       <c r="C149" s="19"/>
@@ -2730,7 +2735,7 @@
     </row>
     <row r="150" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A150" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B150" s="19"/>
       <c r="C150" s="19"/>
@@ -2738,7 +2743,7 @@
     </row>
     <row r="151" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B151" s="19"/>
       <c r="C151" s="19"/>
@@ -2746,13 +2751,16 @@
     </row>
     <row r="152" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B152" s="19"/>
       <c r="C152" s="19"/>
       <c r="D152" s="21"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A153" s="25" t="s">
+        <v>92</v>
+      </c>
       <c r="B153" s="19"/>
       <c r="C153" s="19"/>
       <c r="D153" s="21"/>
